--- a/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
+++ b/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>Serie</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE259"/>
+  <dimension ref="A1:AE260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6667,6 +6670,41 @@
         <v>8.5</v>
       </c>
     </row>
+    <row r="260" spans="1:11">
+      <c r="A260" t="s">
+        <v>289</v>
+      </c>
+      <c r="B260">
+        <v>16.3</v>
+      </c>
+      <c r="C260">
+        <v>17.9</v>
+      </c>
+      <c r="D260">
+        <v>12.6</v>
+      </c>
+      <c r="E260">
+        <v>14.1</v>
+      </c>
+      <c r="F260">
+        <v>2.6</v>
+      </c>
+      <c r="G260">
+        <v>2.6</v>
+      </c>
+      <c r="H260">
+        <v>3</v>
+      </c>
+      <c r="I260">
+        <v>3</v>
+      </c>
+      <c r="J260">
+        <v>8.5</v>
+      </c>
+      <c r="K260">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
+++ b/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Serie</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE260"/>
+  <dimension ref="A1:AE261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6705,6 +6708,41 @@
         <v>9.300000000000001</v>
       </c>
     </row>
+    <row r="261" spans="1:11">
+      <c r="A261" t="s">
+        <v>290</v>
+      </c>
+      <c r="B261">
+        <v>16.3</v>
+      </c>
+      <c r="C261">
+        <v>17.9</v>
+      </c>
+      <c r="D261">
+        <v>15.1</v>
+      </c>
+      <c r="E261">
+        <v>16.7</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <v>2.2</v>
+      </c>
+      <c r="H261">
+        <v>2.5</v>
+      </c>
+      <c r="I261">
+        <v>2.7</v>
+      </c>
+      <c r="J261">
+        <v>10.4</v>
+      </c>
+      <c r="K261">
+        <v>11.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
+++ b/10/1/PIB e IMACEC 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Serie</t>
   </si>
@@ -887,6 +887,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE261"/>
+  <dimension ref="A1:AE262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6743,6 +6746,41 @@
         <v>11.2</v>
       </c>
     </row>
+    <row r="262" spans="1:11">
+      <c r="A262" t="s">
+        <v>291</v>
+      </c>
+      <c r="B262">
+        <v>13.3</v>
+      </c>
+      <c r="C262">
+        <v>15</v>
+      </c>
+      <c r="D262">
+        <v>9.6</v>
+      </c>
+      <c r="E262">
+        <v>10.4</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>2.2</v>
+      </c>
+      <c r="I262">
+        <v>2.2</v>
+      </c>
+      <c r="J262">
+        <v>11</v>
+      </c>
+      <c r="K262">
+        <v>11.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
